--- a/docs/playground/Q1.xlsx
+++ b/docs/playground/Q1.xlsx
@@ -15,45 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>normal_n</t>
-  </si>
-  <si>
-    <t>mean_FILE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>mse_score</t>
   </si>
   <si>
+    <t>simulate_n</t>
+  </si>
+  <si>
+    <t>simulate_identifier</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>estimate_identifier</t>
+  </si>
+  <si>
+    <t>normal_2_mean_1_mse_1</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>normal_2_mean_1</t>
   </si>
   <si>
-    <t>dsc_result/normal_2_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_4_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_4_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_6_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_6_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_8_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_8_mean_1_mse_1</t>
-  </si>
-  <si>
-    <t>normal_10_mean_1</t>
-  </si>
-  <si>
-    <t>dsc_result/normal_10_mean_1_mse_1</t>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -402,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,7 +398,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,60 +408,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
         <v>1000</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
